--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_7.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1287487.099359248</v>
+        <v>-1292775.21485402</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.653892728</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13337993.97368835</v>
+        <v>13336224.0355171</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>319.7627475245593</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>295.3763261936279</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -716,10 +716,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -792,13 +792,13 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9625118881446</v>
+        <v>146.4474340248885</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>42.63833102172848</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>98.41185199334693</v>
+        <v>134.4087698484675</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>182.8090017860995</v>
+        <v>86.01724569093129</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -953,13 +953,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
@@ -984,13 +984,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>77.91993895071363</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968093</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>21.52443910621584</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>92.47903561380998</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>108.4506916565946</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>52.42702469012808</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -1193,7 +1193,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>175.6983641828944</v>
       </c>
       <c r="C10" t="n">
-        <v>152.5952327633135</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>95.58693720278019</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873668</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
         <v>310.508405100767</v>
@@ -1382,13 +1382,13 @@
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344424</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372795</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362807</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>45.5564911879197</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
@@ -1436,7 +1436,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177853</v>
+        <v>40.68640479150346</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465764</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442491</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681704</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338909</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456102</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901693</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
@@ -1588,13 +1588,13 @@
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>121.8889132889582</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -1607,10 +1607,10 @@
         <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873668</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>327.479377239889</v>
@@ -1619,13 +1619,13 @@
         <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344424</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372795</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362807</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750155</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>233.0940356021714</v>
       </c>
       <c r="W14" t="n">
-        <v>12.54612284480629</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>25.94974245574989</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177853</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465764</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442491</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456102</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901693</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S16" t="n">
-        <v>121.2899269841766</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>162.2835489187163</v>
@@ -1825,7 +1825,7 @@
         <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534023</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
         <v>160.6612066001148</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665146</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
         <v>282.3655247697376</v>
@@ -1862,7 +1862,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
         <v>236.929075365811</v>
@@ -1910,7 +1910,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380507</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596447</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
         <v>132.9595824117996</v>
@@ -2068,7 +2068,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
@@ -2087,7 +2087,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
         <v>282.3655247697376</v>
@@ -2099,7 +2099,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.9056271005944</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
         <v>236.929075365811</v>
@@ -2147,7 +2147,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380507</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596447</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
         <v>132.9595824117996</v>
@@ -2305,7 +2305,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
         <v>282.3655247697376</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
         <v>236.929075365811</v>
@@ -2384,7 +2384,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542119</v>
+        <v>283.7098784815731</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093889</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227891</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619111</v>
       </c>
       <c r="F32" t="n">
-        <v>306.389036785251</v>
+        <v>299.9455743126122</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564644</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838883</v>
+        <v>24.17382596574997</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828895</v>
+        <v>52.06849973565009</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.905821430807</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813244</v>
+        <v>254.5091249086856</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435639</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158951</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431727</v>
+        <v>70.57601873167842</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459968</v>
+        <v>55.72314698196082</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643941</v>
+        <v>41.29686219380055</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931852</v>
+        <v>41.22330424667966</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908579</v>
+        <v>42.97275566644693</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147792</v>
+        <v>53.79159358883906</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804996</v>
+        <v>41.14384575541111</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922189</v>
+        <v>18.98356133658304</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367781</v>
+        <v>9.882059701038955</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920513</v>
+        <v>88.00800320656627</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407384</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.983094427313</v>
+        <v>150.5396319546742</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.9595992221369</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875521</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277564</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059319</v>
       </c>
       <c r="U38" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W38" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880397</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908638</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.7168126509261</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380521</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357248</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596462</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253666</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708589</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369182</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593878</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
         <v>251.2267481799146</v>
@@ -3749,16 +3749,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F41" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,25 +3785,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380518</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357245</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596459</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I46" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65.47204529596588</v>
+        <v>1168.463487029518</v>
       </c>
       <c r="C2" t="n">
-        <v>65.47204529596588</v>
+        <v>1168.463487029518</v>
       </c>
       <c r="D2" t="n">
-        <v>65.47204529596588</v>
+        <v>1168.463487029518</v>
       </c>
       <c r="E2" t="n">
-        <v>65.47204529596588</v>
+        <v>765.8799621460626</v>
       </c>
       <c r="F2" t="n">
-        <v>52.61801086634771</v>
+        <v>753.0259277164444</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475494</v>
+        <v>339.8631722044475</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J2" t="n">
-        <v>188.145432303583</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L2" t="n">
-        <v>547.1277883310449</v>
+        <v>773.3325661833852</v>
       </c>
       <c r="M2" t="n">
-        <v>673.8990329354862</v>
+        <v>1286.935244793074</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572948</v>
+        <v>1286.935244793074</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465277</v>
+        <v>1726.974845685402</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596798</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023269</v>
+        <v>2037.169424102446</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964319</v>
+        <v>2037.169424102446</v>
       </c>
       <c r="T2" t="n">
-        <v>1746.775898523736</v>
+        <v>1813.668821661863</v>
       </c>
       <c r="U2" t="n">
-        <v>1491.023168958335</v>
+        <v>1557.916092096461</v>
       </c>
       <c r="V2" t="n">
-        <v>1148.916359661853</v>
+        <v>1557.916092096461</v>
       </c>
       <c r="W2" t="n">
-        <v>777.9173246301407</v>
+        <v>1557.916092096461</v>
       </c>
       <c r="X2" t="n">
-        <v>388.4647195631975</v>
+        <v>1168.463487029518</v>
       </c>
       <c r="Y2" t="n">
-        <v>388.4647195631975</v>
+        <v>1168.463487029518</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284336</v>
+        <v>90.8905007444269</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K3" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="L3" t="n">
-        <v>156.6106416144823</v>
+        <v>407.9705203262588</v>
       </c>
       <c r="M3" t="n">
-        <v>694.8694266245747</v>
+        <v>407.9705203262588</v>
       </c>
       <c r="N3" t="n">
-        <v>1233.128211634667</v>
+        <v>921.5731989359475</v>
       </c>
       <c r="O3" t="n">
-        <v>1749.648494225648</v>
+        <v>1435.175877545636</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182856</v>
+        <v>1840.797246262034</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635811</v>
+        <v>2051.245294714989</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.93524953568</v>
+        <v>1916.314617614858</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734589</v>
+        <v>1739.330805813766</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.88829441323</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784297</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>845.5367708319166</v>
+        <v>1329.348428372857</v>
       </c>
       <c r="C4" t="n">
-        <v>675.3316528979058</v>
+        <v>1329.348428372857</v>
       </c>
       <c r="D4" t="n">
-        <v>675.3316528979058</v>
+        <v>1173.715315275372</v>
       </c>
       <c r="E4" t="n">
-        <v>519.7728407571083</v>
+        <v>1173.715315275372</v>
       </c>
       <c r="F4" t="n">
-        <v>362.4469059700812</v>
+        <v>1173.715315275372</v>
       </c>
       <c r="G4" t="n">
-        <v>362.4469059700812</v>
+        <v>1173.715315275372</v>
       </c>
       <c r="H4" t="n">
-        <v>206.9683549315751</v>
+        <v>1173.715315275372</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865298</v>
+        <v>1173.715315275372</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475494</v>
+        <v>1173.715315275372</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>1255.550356385314</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>1419.677996259113</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>1605.969574597377</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>1789.159208628587</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>1951.863975670295</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>2071.740141446873</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>1951.261348449501</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>1748.445264632051</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>1748.445264632051</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>1748.445264632051</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>1748.445264632051</v>
       </c>
       <c r="W4" t="n">
-        <v>944.9426819363074</v>
+        <v>1465.114862563228</v>
       </c>
       <c r="X4" t="n">
-        <v>944.9426819363074</v>
+        <v>1465.114862563228</v>
       </c>
       <c r="Y4" t="n">
-        <v>944.9426819363074</v>
+        <v>1465.114862563228</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>203.809162203501</v>
+        <v>1304.516430278996</v>
       </c>
       <c r="C5" t="n">
-        <v>203.809162203501</v>
+        <v>911.3409287819262</v>
       </c>
       <c r="D5" t="n">
-        <v>203.809162203501</v>
+        <v>525.8997999985939</v>
       </c>
       <c r="E5" t="n">
-        <v>203.809162203501</v>
+        <v>525.8997999985939</v>
       </c>
       <c r="F5" t="n">
-        <v>190.9551277738829</v>
+        <v>513.0457655689758</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022901</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475494</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>43.49565939475494</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="L5" t="n">
-        <v>536.8159511132837</v>
+        <v>679.4733113836954</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.074736123376</v>
+        <v>936.6744981739586</v>
       </c>
       <c r="N5" t="n">
-        <v>1602.886019760838</v>
+        <v>1450.277176783647</v>
       </c>
       <c r="O5" t="n">
-        <v>2042.925620653167</v>
+        <v>1890.316777675976</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737747</v>
+        <v>1890.316777675976</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023269</v>
+        <v>2037.169424102446</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964319</v>
+        <v>1870.655869043497</v>
       </c>
       <c r="T5" t="n">
-        <v>1746.775898523736</v>
+        <v>1647.155266602913</v>
       </c>
       <c r="U5" t="n">
-        <v>1491.023168958335</v>
+        <v>1391.402537037512</v>
       </c>
       <c r="V5" t="n">
-        <v>1148.916359661853</v>
+        <v>1391.402537037512</v>
       </c>
       <c r="W5" t="n">
-        <v>777.9173246301407</v>
+        <v>1391.402537037512</v>
       </c>
       <c r="X5" t="n">
-        <v>388.4647195631975</v>
+        <v>1391.402537037512</v>
       </c>
       <c r="Y5" t="n">
-        <v>388.4647195631975</v>
+        <v>1391.402537037512</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>556.1927859813193</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>556.1927859813193</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>426.1038186027996</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>289.6573277136873</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>289.6573277136873</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>169.5975097855518</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284336</v>
+        <v>90.8905007444269</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767087</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="M6" t="n">
-        <v>1423.897595591875</v>
+        <v>555.1059253660272</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.897595591875</v>
+        <v>1068.708603975716</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182856</v>
+        <v>1582.311282585405</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182856</v>
+        <v>1840.797246262034</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737747</v>
+        <v>2051.245294714989</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737747</v>
+        <v>1916.314617614858</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813766</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492408</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863475</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996762</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467733</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222806</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>502.2737537301939</v>
+        <v>522.8200288263406</v>
       </c>
       <c r="C7" t="n">
-        <v>332.0686357961831</v>
+        <v>352.6149108923298</v>
       </c>
       <c r="D7" t="n">
-        <v>332.0686357961831</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="E7" t="n">
-        <v>332.0686357961831</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="F7" t="n">
-        <v>332.0686357961831</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="G7" t="n">
-        <v>332.0686357961831</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="H7" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="T7" t="n">
-        <v>709.2236301045415</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="U7" t="n">
-        <v>709.2236301045415</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="V7" t="n">
-        <v>687.4817724214952</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="W7" t="n">
-        <v>687.4817724214952</v>
+        <v>522.8200288263406</v>
       </c>
       <c r="X7" t="n">
-        <v>687.4817724214952</v>
+        <v>522.8200288263406</v>
       </c>
       <c r="Y7" t="n">
-        <v>687.4817724214952</v>
+        <v>522.8200288263406</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>924.8850248408685</v>
+        <v>178.8355091912339</v>
       </c>
       <c r="C8" t="n">
-        <v>531.7095233437991</v>
+        <v>178.8355091912339</v>
       </c>
       <c r="D8" t="n">
-        <v>531.7095233437991</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="E8" t="n">
-        <v>531.7095233437991</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="F8" t="n">
-        <v>518.8554889141809</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,13 +4805,13 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M8" t="n">
-        <v>1044.265390756362</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
         <v>1392.575851912381</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2312.691914481091</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2056.93918491569</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>1714.832375619209</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W8" t="n">
-        <v>1714.832375619209</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X8" t="n">
-        <v>1325.379770552265</v>
+        <v>579.3302549026308</v>
       </c>
       <c r="Y8" t="n">
-        <v>1325.379770552265</v>
+        <v>579.3302549026308</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L9" t="n">
-        <v>623.6437572083089</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>713.0409408113302</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>558.9043420605085</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>403.2712289630232</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>403.2712289630232</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>245.9452941759961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>713.0409408113302</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="U10" t="n">
-        <v>713.0409408113302</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="V10" t="n">
-        <v>713.0409408113302</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="W10" t="n">
-        <v>713.0409408113302</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="X10" t="n">
-        <v>713.0409408113302</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.0409408113302</v>
+        <v>224.7860652357804</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1691.856237801877</v>
+        <v>1966.681876406338</v>
       </c>
       <c r="C11" t="n">
-        <v>1370.477011451001</v>
+        <v>1645.302650055463</v>
       </c>
       <c r="D11" t="n">
-        <v>1056.832157813863</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="E11" t="n">
-        <v>726.0449080766009</v>
+        <v>1000.870546681063</v>
       </c>
       <c r="F11" t="n">
-        <v>380.9467447527724</v>
+        <v>655.7723833572345</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527724</v>
+        <v>314.4059029914312</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654569</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579423</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="V11" t="n">
-        <v>2405.267789429136</v>
+        <v>2908.235400145812</v>
       </c>
       <c r="W11" t="n">
-        <v>2106.065029543617</v>
+        <v>2609.032640260293</v>
       </c>
       <c r="X11" t="n">
-        <v>1788.408699622867</v>
+        <v>2291.376310339544</v>
       </c>
       <c r="Y11" t="n">
-        <v>1788.408699622867</v>
+        <v>1966.681876406338</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>1223.947919817482</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>556.6863671542451</v>
+        <v>430.368312172853</v>
       </c>
       <c r="C13" t="n">
-        <v>556.6863671542451</v>
+        <v>331.9594693850361</v>
       </c>
       <c r="D13" t="n">
-        <v>472.8495292029536</v>
+        <v>290.8620908077596</v>
       </c>
       <c r="E13" t="n">
-        <v>389.0869922083499</v>
+        <v>207.099553813156</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675167</v>
+        <v>207.099553813156</v>
       </c>
       <c r="G13" t="n">
         <v>207.099553813156</v>
@@ -5197,25 +5197,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581889</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027732</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118218</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138155</v>
+        <v>999.6269248138159</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
-        <v>1422.942916173671</v>
+        <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
         <v>1496.732641814507</v>
@@ -5233,16 +5233,16 @@
         <v>1149.685342236449</v>
       </c>
       <c r="V13" t="n">
-        <v>955.5022722034666</v>
+        <v>955.5022722034673</v>
       </c>
       <c r="W13" t="n">
-        <v>955.5022722034666</v>
+        <v>743.9681452808388</v>
       </c>
       <c r="X13" t="n">
-        <v>793.2182251326436</v>
+        <v>581.6840982100158</v>
       </c>
       <c r="Y13" t="n">
-        <v>670.0981106993524</v>
+        <v>430.368312172853</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1691.856237801877</v>
+        <v>1653.0370227692</v>
       </c>
       <c r="C14" t="n">
-        <v>1370.477011451001</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="D14" t="n">
-        <v>1056.832157813863</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="E14" t="n">
-        <v>726.0449080766009</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F14" t="n">
-        <v>380.9467447527724</v>
+        <v>655.772383357234</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527724</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654569</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5309,19 +5309,19 @@
         <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579425</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="V14" t="n">
-        <v>2675.578323579425</v>
+        <v>2624.086257188357</v>
       </c>
       <c r="W14" t="n">
-        <v>2662.905472221034</v>
+        <v>2624.086257188357</v>
       </c>
       <c r="X14" t="n">
-        <v>2345.249142300285</v>
+        <v>2306.429927267608</v>
       </c>
       <c r="Y14" t="n">
-        <v>2020.55470836708</v>
+        <v>1981.735493334403</v>
       </c>
     </row>
     <row r="15">
@@ -5364,16 +5364,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>376.5463125075722</v>
+        <v>472.8495292029534</v>
       </c>
       <c r="C16" t="n">
-        <v>376.5463125075722</v>
+        <v>472.8495292029534</v>
       </c>
       <c r="D16" t="n">
-        <v>292.7094745562807</v>
+        <v>472.8495292029534</v>
       </c>
       <c r="E16" t="n">
-        <v>208.9469375616771</v>
+        <v>389.0869922083498</v>
       </c>
       <c r="F16" t="n">
-        <v>123.4172779208438</v>
+        <v>303.5573325675166</v>
       </c>
       <c r="G16" t="n">
-        <v>123.4172779208438</v>
+        <v>207.099553813156</v>
       </c>
       <c r="H16" t="n">
         <v>123.4172779208438</v>
@@ -5437,22 +5437,22 @@
         <v>102.7129143774626</v>
       </c>
       <c r="K16" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027733</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118219</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138157</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126308</v>
       </c>
       <c r="P16" t="n">
-        <v>1422.942916173671</v>
+        <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
         <v>1496.732641814507</v>
@@ -5461,25 +5461,25 @@
         <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1322.112849831483</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.190073145911</v>
+        <v>1280.705150907706</v>
       </c>
       <c r="U16" t="n">
-        <v>944.5475565340057</v>
+        <v>1067.062634295801</v>
       </c>
       <c r="V16" t="n">
-        <v>750.3644865010237</v>
+        <v>872.8795642628189</v>
       </c>
       <c r="W16" t="n">
-        <v>538.8303595783952</v>
+        <v>661.3454373401904</v>
       </c>
       <c r="X16" t="n">
-        <v>376.5463125075722</v>
+        <v>499.0613902693675</v>
       </c>
       <c r="Y16" t="n">
-        <v>376.5463125075722</v>
+        <v>499.0613902693675</v>
       </c>
     </row>
     <row r="17">
@@ -5501,31 +5501,31 @@
         <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099317</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924219</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129445</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5534,13 +5534,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5549,16 +5549,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5592,16 +5592,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M18" t="n">
-        <v>1223.947919817482</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N18" t="n">
         <v>1223.947919817482</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369568</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
         <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072661</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462912</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5674,49 +5674,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>969.3241577214671</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974517</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5735,16 +5735,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924217</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5780,10 +5780,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
         <v>2644.789635573994</v>
@@ -5832,19 +5832,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N21" t="n">
-        <v>1314.578167032715</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O21" t="n">
-        <v>1831.098449623696</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
         <v>2146.089571124861</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229814</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>149.53381142224</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960398</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>499.9530296343038</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655131</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O22" t="n">
-        <v>845.8474307072211</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
-        <v>965.7235964837996</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974517</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6014,22 +6014,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443165</v>
@@ -6075,13 +6075,13 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1606.310991511064</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
-        <v>2146.089571124861</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O24" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
         <v>2146.089571124861</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6154,7 +6154,7 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
         <v>806.6193906797589</v>
@@ -6163,34 +6163,34 @@
         <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,73 +6200,73 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
         <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1163.368641331942</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1739.339056658946</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.201702025981</v>
+        <v>2453.253063755553</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647883</v>
+        <v>2986.344026377455</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3427.58288023855</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6297,10 +6297,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6312,13 +6312,13 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1617.556722754498</v>
+        <v>1095.935962441339</v>
       </c>
       <c r="N27" t="n">
-        <v>2157.335302368295</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O27" t="n">
-        <v>2157.335302368295</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
         <v>2157.335302368295</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,22 +6461,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838402</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1163.368641331942</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1802.420903106096</v>
+        <v>1832.390418388518</v>
       </c>
       <c r="N29" t="n">
-        <v>2423.283548473132</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O29" t="n">
-        <v>2956.374511095034</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P29" t="n">
         <v>3334.531518508978</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6546,13 +6546,13 @@
         <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>506.2189872295041</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1133.990636856185</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
         <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286452</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222129</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463663</v>
+        <v>904.3560533993075</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057087</v>
+        <v>601.3807258108103</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.1370811803386</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835521</v>
       </c>
       <c r="I32" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>658.5898600230587</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1151.910151741587</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1697.911051786168</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2225.72233542363</v>
+        <v>2138.319739939207</v>
       </c>
       <c r="O32" t="n">
-        <v>2771.035029043029</v>
+        <v>2690.011461406518</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.495613901621</v>
+        <v>3149.851074113022</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042569</v>
+        <v>3334.696634253971</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.37741203808</v>
+        <v>3377.756780117257</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.162335939832</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380774</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.84221376124</v>
+        <v>3073.747225696898</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394123</v>
+        <v>2845.559527281941</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.409263884299</v>
       </c>
       <c r="L33" t="n">
-        <v>502.4016765227154</v>
+        <v>983.9753497826123</v>
       </c>
       <c r="M33" t="n">
-        <v>1130.173326149397</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965123</v>
+        <v>365.6713676929726</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918662</v>
+        <v>309.3853606404869</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237455</v>
+        <v>267.6713584245268</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123127</v>
+        <v>226.0316571652544</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546503</v>
+        <v>182.6248332597524</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834604</v>
+        <v>128.2898902407231</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431906</v>
+        <v>86.73045008374214</v>
       </c>
       <c r="I34" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074065</v>
+        <v>149.390176712287</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082765</v>
+        <v>425.1699371610695</v>
       </c>
       <c r="M34" t="n">
-        <v>787.8473431465405</v>
+        <v>611.4615154993335</v>
       </c>
       <c r="N34" t="n">
-        <v>971.0369771777498</v>
+        <v>870.6770655353553</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145872</v>
+        <v>1033.381832577063</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649521</v>
+        <v>1264.910118928625</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746642</v>
+        <v>1379.984435873658</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.00255738776</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451835</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501594</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.78596262502</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439551</v>
+        <v>835.7257283273693</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000933</v>
+        <v>666.3144371400721</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012441</v>
+        <v>546.1532258045803</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.021071758449</v>
+        <v>436.9602755027487</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924223</v>
@@ -6974,7 +6974,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7020,13 +7020,13 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1122.744905612751</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
-        <v>1740.468202408463</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O36" t="n">
         <v>1740.468202408463</v>
@@ -7108,7 +7108,7 @@
         <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
         <v>1094.779966106229</v>
@@ -7157,16 +7157,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924231</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,19 +7199,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7254,19 +7254,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1286.571845448837</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1942.349816659396</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O39" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.93197918856</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369576</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218807</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634917</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.915947958873</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.3386307407269</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462925</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>67.69877031229885</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>278.5901810446693</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>442.7178209184691</v>
+        <v>313.6614512960424</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567331</v>
+        <v>499.9530296343064</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879423</v>
+        <v>812.1990332879441</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296521</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.779966106231</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918818</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161911</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194237</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330097</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984012</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974529</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924231</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129437</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
         <v>565.7512566404055</v>
@@ -7430,31 +7430,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829237</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H42" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411556</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>346.9752758473783</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>830.5413617456916</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1458.313011372373</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.313011372373</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885599</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634916</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072687</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462925</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>270.9691711012537</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>435.0968109750535</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>621.3883893133175</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>804.5780233445266</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>967.2827903862346</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1087.158956162813</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1090.581152532864</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918815</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161908</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194235</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330095</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974528</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7628,19 +7628,19 @@
         <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975443</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099305</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803421</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924229</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829234</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071059</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V44" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.467337224689</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443164</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>346.9752758473783</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>830.5413617456916</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1458.313011372373</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.313011372373</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O45" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7819,37 +7819,37 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>840.2677880990384</v>
+        <v>969.324157721467</v>
       </c>
       <c r="P46" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q46" t="n">
-        <v>1090.581152532864</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161907</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X46" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974527</v>
+        <v>289.463261197452</v>
       </c>
     </row>
   </sheetData>
@@ -7982,13 +7982,13 @@
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>383.7503823474177</v>
       </c>
       <c r="M2" t="n">
-        <v>277.7768138244356</v>
+        <v>668.5156360519584</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -7997,7 +7997,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,25 +8055,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>460.2293100588579</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837486</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886034</v>
+        <v>604.1626973083977</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.47814334312</v>
       </c>
       <c r="P3" t="n">
-        <v>279.7797122508383</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>143.0584031792374</v>
@@ -8222,19 +8222,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321639</v>
+        <v>409.5242301737507</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920152</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>283.4906887405011</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,25 +8292,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>561.0555281269416</v>
+        <v>611.1777065035429</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>604.1626973083977</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.47814334312</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>348.1802978260107</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8453,16 +8453,16 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>149.7250515977273</v>
+        <v>331.0195299270391</v>
       </c>
       <c r="N8" t="n">
-        <v>500.9472399802273</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
@@ -8532,16 +8532,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>234.9862648617782</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>301.5486891608486</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8550,7 +8550,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,28 +8766,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9012,7 +9012,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>340.2745745069883</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N15" t="n">
         <v>85.37211285416666</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>263.7907196684361</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
         <v>505.666843611017</v>
@@ -9182,7 +9182,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9240,19 +9240,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>340.2745745069883</v>
+        <v>115.0989755892052</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9480,7 +9480,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
@@ -9492,10 +9492,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>199.9106794075977</v>
       </c>
       <c r="P21" t="n">
-        <v>405.2562148204912</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
         <v>327.7205688679246</v>
@@ -9723,16 +9723,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>630.6030013529515</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>199.9106794075977</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9960,16 +9960,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>199.6102425680203</v>
       </c>
       <c r="N27" t="n">
-        <v>630.6030013529513</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10194,16 +10194,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>187.5973797276326</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286863</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10431,13 +10431,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069886</v>
       </c>
       <c r="N33" t="n">
-        <v>187.5973797276331</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10668,16 +10668,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>709.3350389104421</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>199.9106794075977</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
@@ -10902,7 +10902,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
@@ -10911,13 +10911,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>298.4852906721864</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11136,10 +11136,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>377.3304183063261</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
@@ -11151,13 +11151,13 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,10 +11373,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>377.3304183063261</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
@@ -11385,16 +11385,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>229.8245486567708</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.952815562145</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>222.0509376208652</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
-        <v>97.4247543599388</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>42.31206478027502</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534023</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>27.91371488783297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>337.952815562145</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,13 +23549,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087849</v>
+        <v>34.51339320661348</v>
       </c>
       <c r="W14" t="n">
-        <v>283.6646094418572</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096564</v>
+        <v>86.32788365390647</v>
       </c>
       <c r="C16" t="n">
-        <v>97.4247543599388</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681704</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338909</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>8.419683600367591</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1168701.826682932</v>
+        <v>1167799.505262291</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1168701.826682932</v>
+        <v>1167799.505262291</v>
       </c>
     </row>
     <row r="4">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1174805.600964618</v>
+        <v>1174805.600964617</v>
       </c>
     </row>
     <row r="9">
@@ -26326,13 +26326,13 @@
         <v>111551.3163970803</v>
       </c>
       <c r="G2" t="n">
-        <v>126232.5246653498</v>
+        <v>126232.5246653497</v>
       </c>
       <c r="H2" t="n">
-        <v>126232.5246653499</v>
+        <v>126232.5246653497</v>
       </c>
       <c r="I2" t="n">
-        <v>126232.5246653499</v>
+        <v>126232.5246653496</v>
       </c>
       <c r="J2" t="n">
         <v>126232.5246653498</v>
@@ -26341,19 +26341,19 @@
         <v>126232.5246653498</v>
       </c>
       <c r="L2" t="n">
-        <v>126232.5246653498</v>
+        <v>126232.5246653496</v>
       </c>
       <c r="M2" t="n">
         <v>126232.5246653496</v>
       </c>
       <c r="N2" t="n">
+        <v>126232.5246653495</v>
+      </c>
+      <c r="O2" t="n">
+        <v>126232.5246653496</v>
+      </c>
+      <c r="P2" t="n">
         <v>126232.5246653497</v>
-      </c>
-      <c r="O2" t="n">
-        <v>126232.5246653495</v>
-      </c>
-      <c r="P2" t="n">
-        <v>126232.5246653495</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918557</v>
+        <v>173858.6570340553</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062204</v>
+        <v>22558.42953401333</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668205</v>
+        <v>47425.325536682</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728568</v>
+        <v>62456.24177539671</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962303</v>
+        <v>43252.52447081116</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277104</v>
+        <v>27767.69404277128</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199815.2079190949</v>
+        <v>205625.0607746774</v>
       </c>
       <c r="C4" t="n">
-        <v>199815.2079190949</v>
+        <v>205625.0607746774</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
       </c>
       <c r="E4" t="n">
-        <v>112797.3745002077</v>
+        <v>112797.3745002078</v>
       </c>
       <c r="F4" t="n">
-        <v>112797.3745002077</v>
+        <v>112797.3745002078</v>
       </c>
       <c r="G4" t="n">
         <v>160556.29099179</v>
@@ -26445,19 +26445,19 @@
         <v>161306.7834561731</v>
       </c>
       <c r="L4" t="n">
-        <v>161051.2095556898</v>
+        <v>160917.814946635</v>
       </c>
       <c r="M4" t="n">
         <v>160556.29099179</v>
       </c>
       <c r="N4" t="n">
-        <v>160556.29099179</v>
+        <v>160556.2909917899</v>
       </c>
       <c r="O4" t="n">
         <v>160556.29099179</v>
       </c>
       <c r="P4" t="n">
-        <v>160556.2909917899</v>
+        <v>160556.29099179</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001375</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001375</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>53186.01969984051</v>
+        <v>53186.01969984052</v>
       </c>
       <c r="F5" t="n">
-        <v>53186.01969984051</v>
+        <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
@@ -26497,19 +26497,19 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315425</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
+        <v>58169.76931551965</v>
+      </c>
+      <c r="O5" t="n">
+        <v>58169.76931551967</v>
+      </c>
+      <c r="P5" t="n">
         <v>58169.76931551966</v>
-      </c>
-      <c r="O5" t="n">
-        <v>58169.76931551968</v>
-      </c>
-      <c r="P5" t="n">
-        <v>58169.76931551965</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-322471.9326856146</v>
+        <v>-318421.2606782002</v>
       </c>
       <c r="C6" t="n">
-        <v>-140266.9843937589</v>
+        <v>-144562.6036441449</v>
       </c>
       <c r="D6" t="n">
-        <v>-146859.0457334813</v>
+        <v>-154595.3349568726</v>
       </c>
       <c r="E6" t="n">
-        <v>-166554.6392770124</v>
+        <v>-166764.3708237021</v>
       </c>
       <c r="F6" t="n">
-        <v>-54432.07780296794</v>
+        <v>-54641.80934965754</v>
       </c>
       <c r="G6" t="n">
-        <v>-139918.8611786419</v>
+        <v>-139918.861178642</v>
       </c>
       <c r="H6" t="n">
-        <v>-92493.53564195978</v>
+        <v>-92493.53564195997</v>
       </c>
       <c r="I6" t="n">
-        <v>-92493.53564195981</v>
+        <v>-92493.53564196004</v>
       </c>
       <c r="J6" t="n">
-        <v>-305535.4532392452</v>
+        <v>-299019.1680846722</v>
       </c>
       <c r="K6" t="n">
-        <v>-98733.30404474289</v>
+        <v>-98733.30404474275</v>
       </c>
       <c r="L6" t="n">
-        <v>-153915.8929793641</v>
+        <v>-157964.7301898364</v>
       </c>
       <c r="M6" t="n">
-        <v>-134694.3651015831</v>
+        <v>-135746.0601127712</v>
       </c>
       <c r="N6" t="n">
-        <v>-92493.53564195998</v>
+        <v>-92493.53564195996</v>
       </c>
       <c r="O6" t="n">
-        <v>-120261.2296847312</v>
+        <v>-120261.2296847314</v>
       </c>
       <c r="P6" t="n">
-        <v>-92493.53564196004</v>
+        <v>-92493.53564195994</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,25 +26707,25 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
+        <v>130.3599693155843</v>
+      </c>
+      <c r="O2" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="O2" t="n">
-        <v>130.3599693155843</v>
-      </c>
       <c r="P2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,7 +26802,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
         <v>776.4890963014441</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.060736844378</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.34435300952</v>
+        <v>844.4391950293142</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,7 +26826,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014444</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085257</v>
+        <v>59.2816569208525</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346389</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.6268397466071</v>
+        <v>78.07030221924589</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551339</v>
+        <v>17.58004954287453</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.7096175534638</v>
+        <v>34.7096175534641</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485833</v>
+        <v>72.62154181506401</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.267382977371</v>
+        <v>659.362224997165</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407311</v>
+        <v>117.126871304279</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085257</v>
+        <v>59.2816569208525</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346389</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485833</v>
+        <v>72.62154181506401</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>76.7270507297236</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -27385,16 +27385,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>25.46589373554633</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,10 +27436,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27512,13 +27512,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>61.51507786325607</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>185.1777423863175</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84.94408651104133</v>
+        <v>48.94716865592076</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -27597,7 +27597,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>213.6807964681834</v>
+        <v>310.4725525633516</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27704,13 +27704,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>9.494503284691447</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938627135</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>241.7951126211682</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>188.0180624343242</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>273.1360258389043</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>168.8385717260494</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>7.657574321493826</v>
       </c>
       <c r="C10" t="n">
-        <v>15.90783399135719</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -28032,7 +28032,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="17">
@@ -28746,7 +28746,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28758,10 +28758,10 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>5.636002634527912</v>
+        <v>5.636002634528595</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668696</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -28998,10 +28998,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>5.636002634528595</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29226,16 +29226,16 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>5.63600263452814</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>30.27223765901272</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901124</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29533,7 +29533,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -29542,7 +29542,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="N29" t="n">
         <v>93.99127447431646</v>
@@ -29551,7 +29551,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>30.27223765901277</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>93.99127447431646</v>
@@ -29746,34 +29746,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>86.27291196566381</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29785,37 +29785,37 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="P32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.336457300071</v>
+        <v>81.10808140893522</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J34" t="n">
-        <v>106.336457300071</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>76.79385455031576</v>
       </c>
       <c r="O34" t="n">
-        <v>18.71446861253963</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="35">
@@ -30180,10 +30180,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P37" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="39">
@@ -30378,43 +30378,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J40" t="n">
-        <v>35.71049010668768</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>5.636002634530513</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30502,31 +30502,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733463</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="42">
@@ -30615,34 +30615,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>130.3599693155843</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
-        <v>28.01250026485377</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30651,7 +30651,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>130.3599693155843</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
@@ -30891,37 +30891,37 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>5.636002634528481</v>
       </c>
       <c r="Q46" t="n">
-        <v>128.2979821082787</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>130.3599693155843</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
   </sheetData>
@@ -34702,13 +34702,13 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>230.502212616926</v>
       </c>
       <c r="M2" t="n">
-        <v>128.0517622267083</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34717,7 +34717,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.1689632019397</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344367</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="P3" t="n">
-        <v>192.6963474315237</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34942,19 +34942,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344367</v>
+        <v>259.7991785760234</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>133.1892414995759</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>468.6684060776297</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>261.0969330066961</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35173,16 +35173,16 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>181.2944783293118</v>
       </c>
       <c r="N8" t="n">
-        <v>351.8287486424433</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
@@ -35252,16 +35252,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>144.92591800486</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>216.1765763066819</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35270,7 +35270,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.0038249225728</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35574,19 +35574,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P13" t="n">
-        <v>192.16534853269</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488435</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35732,7 +35732,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>247.8874524576764</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.0038249225728</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35811,19 +35811,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P16" t="n">
-        <v>192.16534853269</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488435</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>146.1108817260899</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
         <v>362.6084404317796</v>
@@ -35902,7 +35902,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>247.8874524576764</v>
+        <v>22.71185353989332</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36054,10 +36054,10 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7230387724861</v>
+        <v>126.7230387724868</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
@@ -36200,7 +36200,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
@@ -36212,10 +36212,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="P21" t="n">
-        <v>318.1728500011766</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
         <v>236.7324157120106</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634527888</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36285,7 +36285,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36294,10 +36294,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724868</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36443,16 +36443,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>545.2308884987849</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
         <v>236.7324157120106</v>
@@ -36522,16 +36522,16 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>126.7230387724863</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>581.7882983101042</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192276</v>
+        <v>563.4149484039224</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
@@ -36613,10 +36613,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,16 +36680,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>107.2231205187084</v>
       </c>
       <c r="N27" t="n">
-        <v>545.2308884987847</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
         <v>236.7324157120106</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36762,16 +36762,16 @@
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
@@ -36838,7 +36838,7 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>581.7882983101038</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
@@ -36847,7 +36847,7 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>381.9767751656005</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
         <v>280.7039614853756</v>
@@ -36914,16 +36914,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>102.225266873466</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -37069,7 +37069,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>448.8813523974434</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
@@ -37081,16 +37081,16 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458572</v>
+        <v>557.2643651184961</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066587</v>
+        <v>464.4844572792975</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273771</v>
+        <v>43.49509683160194</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,13 +37151,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576767</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2252668734664</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791191</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.998114986881</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.121952122091</v>
+        <v>278.5654145947298</v>
       </c>
       <c r="M34" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>261.8338889252746</v>
       </c>
       <c r="O34" t="n">
-        <v>183.0627181496185</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>233.866955910668</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102235</v>
+        <v>116.2366837828623</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37388,16 +37388,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>623.9629260562755</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
@@ -37476,10 +37476,10 @@
         <v>315.4000036905431</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P37" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
@@ -37622,7 +37622,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
@@ -37631,13 +37631,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>205.7977317832975</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.636002634528606</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565505</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37798,7 +37798,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110598</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7334829729927</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
@@ -37871,13 +37871,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>110.6741579516637</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
@@ -37947,7 +37947,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>7.697989841835522</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7334829729927</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
@@ -38105,16 +38105,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38187,16 +38187,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724866</v>
       </c>
       <c r="Q46" t="n">
-        <v>131.7547461184312</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>7.697989841835522</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
